--- a/output/Media_analise/media/Compositions/@saidaouter_outros.xlsx
+++ b/output/Media_analise/media/Compositions/@saidaouter_outros.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\media\Compositions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb5363e8f87d921c/Área de Trabalho/faculdade/@Lab/Bisch/V.cholerae1/V. cholerae metabolism/output/Media_analise/media/Compositions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FADCA-50D9-4621-99AE-A895B3E79FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FC3FADCA-50D9-4621-99AE-A895B3E79FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66B66A9-B825-4DAF-BEFF-C57B6EE8E1C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3696" yWindow="3696" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Inner" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
-    <sheet name="Inner Union" sheetId="4" r:id="rId4"/>
+    <sheet name="sdsa" sheetId="5" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId4"/>
+    <sheet name="Inner Union" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inner!$A$1:$EE$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha1!$A$1:$EE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha1!$A$1:$EE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sdsa!$A$1:$DR$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="279">
   <si>
     <t>compounds</t>
   </si>
@@ -36,9 +38,6 @@
   </si>
   <si>
     <t>name_kb_media.2770.xls</t>
-  </si>
-  <si>
-    <t>name_kb_media.626.xls</t>
   </si>
   <si>
     <t>name_kb_media.664.xls</t>
@@ -1268,15 +1267,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection sqref="A1:K135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,1914 +1306,1911 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>145</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>145</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>145</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>146</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>146</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>146</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>146</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" t="s">
         <v>146</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I4" t="s">
         <v>146</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
         <v>147</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
         <v>147</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H5" t="s">
         <v>147</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I5" t="s">
         <v>147</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>148</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
         <v>148</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G6" t="s">
         <v>148</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H6" t="s">
         <v>148</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I6" t="s">
         <v>148</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>149</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>149</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>149</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>149</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I7" t="s">
         <v>149</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J7" t="s">
         <v>149</v>
       </c>
-      <c r="J6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>150</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E8" t="s">
         <v>150</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F8" t="s">
         <v>150</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G8" t="s">
         <v>150</v>
       </c>
-      <c r="K7" t="s">
+      <c r="H8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>151</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>151</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
         <v>151</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
         <v>151</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>151</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
         <v>151</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H9" t="s">
         <v>151</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I9" t="s">
         <v>151</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>152</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>152</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>152</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I10" t="s">
         <v>152</v>
       </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>153</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>153</v>
       </c>
-      <c r="H10" t="s">
+      <c r="E11" t="s">
         <v>153</v>
       </c>
-      <c r="J10" t="s">
+      <c r="F11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>154</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>154</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
         <v>154</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E12" t="s">
         <v>154</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F12" t="s">
         <v>154</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>154</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
         <v>154</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I12" t="s">
         <v>154</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>155</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
         <v>155</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>155</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>155</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>155</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J13" t="s">
         <v>155</v>
       </c>
-      <c r="J12" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>156</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>156</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
         <v>156</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
         <v>156</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F14" t="s">
         <v>156</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
         <v>156</v>
       </c>
-      <c r="K13" t="s">
+      <c r="H14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>157</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
         <v>157</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
         <v>157</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F15" t="s">
         <v>157</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G15" t="s">
         <v>157</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H15" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I15" t="s">
         <v>157</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>158</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>158</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>158</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>158</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I16" t="s">
         <v>158</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J16" t="s">
         <v>158</v>
       </c>
-      <c r="J15" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>159</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>159</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
         <v>159</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E17" t="s">
         <v>159</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F17" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
+      <c r="G17" t="s">
         <v>159</v>
       </c>
-      <c r="K16" t="s">
+      <c r="H17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>160</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>160</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
         <v>160</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E18" t="s">
         <v>160</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F18" t="s">
         <v>160</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G18" t="s">
         <v>160</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H18" t="s">
         <v>160</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I18" t="s">
         <v>160</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>161</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>161</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
         <v>161</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H19" t="s">
         <v>161</v>
       </c>
-      <c r="H18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>162</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>162</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D20" t="s">
         <v>162</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G20" t="s">
         <v>162</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>163</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>163</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
         <v>163</v>
       </c>
-      <c r="H20" t="s">
+      <c r="E21" t="s">
         <v>163</v>
       </c>
-      <c r="J20" t="s">
+      <c r="F21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>164</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F22" t="s">
         <v>164</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H22" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>165</v>
       </c>
-      <c r="G22" t="s">
+      <c r="E23" t="s">
         <v>165</v>
       </c>
-      <c r="I22" t="s">
+      <c r="F23" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="H23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>166</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>166</v>
       </c>
-      <c r="G23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>167</v>
       </c>
-      <c r="G24" t="s">
+      <c r="E25" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>168</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>168</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J26" t="s">
         <v>168</v>
       </c>
-      <c r="I25" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F27" t="s">
         <v>169</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>170</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E28" t="s">
         <v>170</v>
       </c>
-      <c r="K27" t="s">
+      <c r="F28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="H28" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>171</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E29" t="s">
         <v>171</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F29" t="s">
         <v>171</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H29" t="s">
         <v>171</v>
       </c>
-      <c r="K28" t="s">
+      <c r="J29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>172</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>172</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J30" t="s">
         <v>172</v>
       </c>
-      <c r="I29" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>173</v>
       </c>
-      <c r="G30" t="s">
+      <c r="E31" t="s">
         <v>173</v>
       </c>
-      <c r="K30" t="s">
+      <c r="F31" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>174</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E32" t="s">
         <v>174</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F32" t="s">
         <v>174</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H32" t="s">
         <v>174</v>
       </c>
-      <c r="K31" t="s">
+      <c r="J32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>175</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E33" t="s">
         <v>175</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F33" t="s">
         <v>175</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H33" t="s">
         <v>175</v>
       </c>
-      <c r="K32" t="s">
+      <c r="J33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>176</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E34" t="s">
         <v>176</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F34" t="s">
         <v>176</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H34" t="s">
         <v>176</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>177</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E35" t="s">
         <v>177</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F35" t="s">
         <v>177</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J35" t="s">
         <v>177</v>
       </c>
-      <c r="K34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>178</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E36" t="s">
         <v>178</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F36" t="s">
         <v>178</v>
       </c>
-      <c r="K35" t="s">
+      <c r="H36" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="J36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>179</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E37" t="s">
         <v>179</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F37" t="s">
         <v>179</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H37" t="s">
         <v>179</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>180</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E38" t="s">
         <v>180</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F38" t="s">
         <v>180</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H38" t="s">
         <v>180</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>181</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E39" t="s">
         <v>181</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F39" t="s">
         <v>181</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H39" t="s">
         <v>181</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>182</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E40" t="s">
         <v>182</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F40" t="s">
         <v>182</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H40" t="s">
         <v>182</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J40" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>183</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>183</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J41" t="s">
         <v>183</v>
       </c>
-      <c r="I40" t="s">
-        <v>183</v>
-      </c>
-      <c r="K40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>184</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F42" t="s">
         <v>184</v>
       </c>
-      <c r="K41" t="s">
+      <c r="H42" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="J42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>185</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F43" t="s">
         <v>185</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J43" t="s">
         <v>185</v>
       </c>
-      <c r="K42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>186</v>
       </c>
-      <c r="G43" t="s">
+      <c r="E44" t="s">
         <v>186</v>
       </c>
-      <c r="K43" t="s">
+      <c r="F44" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="H44" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>187</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>187</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J45" t="s">
         <v>187</v>
       </c>
-      <c r="I44" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>188</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>189</v>
       </c>
-      <c r="G46" t="s">
+      <c r="D47" t="s">
         <v>189</v>
       </c>
-      <c r="K46" t="s">
+      <c r="E47" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>190</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>190</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>190</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H48" t="s">
         <v>190</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J48" t="s">
         <v>190</v>
       </c>
-      <c r="K47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>191</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>191</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J49" t="s">
         <v>191</v>
       </c>
-      <c r="I48" t="s">
-        <v>191</v>
-      </c>
-      <c r="K48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>192</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F50" t="s">
         <v>192</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J50" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>193</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F51" t="s">
         <v>193</v>
       </c>
-      <c r="K50" t="s">
+      <c r="J51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>194</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F52" t="s">
         <v>194</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>195</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F53" t="s">
         <v>195</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>196</v>
       </c>
-      <c r="G53" t="s">
+      <c r="E54" t="s">
         <v>196</v>
       </c>
-      <c r="K53" t="s">
+      <c r="F54" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="H54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>197</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>197</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J55" t="s">
         <v>197</v>
       </c>
-      <c r="I54" t="s">
-        <v>197</v>
-      </c>
-      <c r="K54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>198</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F56" t="s">
         <v>198</v>
       </c>
-      <c r="K55" t="s">
+      <c r="H56" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="J56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>199</v>
       </c>
-      <c r="G56" t="s">
+      <c r="E57" t="s">
         <v>199</v>
       </c>
-      <c r="I56" t="s">
+      <c r="F57" t="s">
         <v>199</v>
       </c>
-      <c r="K56" t="s">
+      <c r="H57" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="J57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>200</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>200</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J58" t="s">
         <v>200</v>
       </c>
-      <c r="I57" t="s">
-        <v>200</v>
-      </c>
-      <c r="K57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>201</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F59" t="s">
         <v>201</v>
       </c>
-      <c r="K58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>202</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>203</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>204</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>205</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>206</v>
       </c>
-      <c r="G63" t="s">
+      <c r="F64" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>207</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F65" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>208</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F66" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="H66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
         <v>209</v>
       </c>
-      <c r="G66" t="s">
-        <v>209</v>
-      </c>
-      <c r="I66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D68" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D69" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D70" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="E70" t="s">
+        <v>212</v>
+      </c>
+      <c r="H70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>213</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H71" t="s">
         <v>213</v>
       </c>
-      <c r="I70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E72" t="s">
         <v>214</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H72" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="J72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E73" t="s">
         <v>215</v>
       </c>
-      <c r="I72" t="s">
+      <c r="F73" t="s">
         <v>215</v>
       </c>
-      <c r="K72" t="s">
+      <c r="H73" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="J73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E74" t="s">
         <v>216</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H74" t="s">
         <v>216</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J74" t="s">
         <v>216</v>
       </c>
-      <c r="K73" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E75" t="s">
         <v>217</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H75" t="s">
         <v>217</v>
       </c>
-      <c r="K74" t="s">
+      <c r="J75" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>218</v>
       </c>
-      <c r="I75" t="s">
-        <v>218</v>
-      </c>
-      <c r="K75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F77" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="I78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="H78" t="s">
+      <c r="G79" t="s">
         <v>221</v>
       </c>
-      <c r="J78" t="s">
+      <c r="I79" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="H79" t="s">
+      <c r="G80" t="s">
         <v>222</v>
       </c>
-      <c r="J79" t="s">
+      <c r="I80" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G81" t="s">
         <v>223</v>
       </c>
-      <c r="J80" t="s">
+      <c r="I81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I82" t="s">
         <v>224</v>
       </c>
-      <c r="J81" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J83" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="K83" t="s">
+      <c r="J84" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="K84" t="s">
+      <c r="J85" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="K85" t="s">
+      <c r="J86" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="K86" t="s">
+      <c r="J87" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="K87" t="s">
+      <c r="J88" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="K88" t="s">
+      <c r="J89" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="K89" t="s">
+      <c r="J90" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="K90" t="s">
+      <c r="J91" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="K91" t="s">
+      <c r="J92" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="K92" t="s">
+      <c r="J93" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="K93" t="s">
+      <c r="J94" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="K94" t="s">
+      <c r="J95" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="K95" t="s">
+      <c r="J96" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="K96" t="s">
+      <c r="J97" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="K97" t="s">
+      <c r="J98" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="K98" t="s">
+      <c r="J99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="K99" t="s">
+      <c r="J100" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="K100" t="s">
+      <c r="J101" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="K101" t="s">
+      <c r="J102" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="K102" t="s">
+      <c r="J103" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="K103" t="s">
+      <c r="J104" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="K104" t="s">
+      <c r="J105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="K105" t="s">
+      <c r="J106" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="K106" t="s">
+      <c r="J107" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="K107" t="s">
+      <c r="J108" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="K108" t="s">
+      <c r="J109" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="K109" t="s">
+      <c r="J110" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="K110" t="s">
+      <c r="J111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="K111" t="s">
+      <c r="J112" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="K112" t="s">
+      <c r="J113" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="K113" t="s">
+      <c r="J114" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="K114" t="s">
+      <c r="J115" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>124</v>
       </c>
-      <c r="K115" t="s">
+      <c r="J116" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>125</v>
       </c>
-      <c r="K116" t="s">
+      <c r="J117" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="K117" t="s">
+      <c r="J118" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>127</v>
       </c>
-      <c r="K118" t="s">
+      <c r="J119" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>128</v>
       </c>
-      <c r="K119" t="s">
+      <c r="J120" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="K120" t="s">
+      <c r="J121" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>130</v>
       </c>
-      <c r="K121" t="s">
+      <c r="J122" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="K122" t="s">
+      <c r="J123" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>132</v>
       </c>
-      <c r="K123" t="s">
+      <c r="J124" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>133</v>
       </c>
-      <c r="K124" t="s">
+      <c r="J125" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="K125" t="s">
+      <c r="J126" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>135</v>
       </c>
-      <c r="K126" t="s">
+      <c r="J127" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>136</v>
       </c>
-      <c r="K127" t="s">
+      <c r="J128" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>137</v>
       </c>
-      <c r="K128" t="s">
+      <c r="J129" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>138</v>
       </c>
-      <c r="K129" t="s">
+      <c r="J130" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>139</v>
       </c>
-      <c r="K130" t="s">
+      <c r="J131" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>140</v>
       </c>
-      <c r="K131" t="s">
+      <c r="J132" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>141</v>
       </c>
-      <c r="K132" t="s">
+      <c r="J133" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>142</v>
       </c>
-      <c r="K133" t="s">
+      <c r="J134" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>143</v>
       </c>
-      <c r="K134" t="s">
+      <c r="J135" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>144</v>
-      </c>
-      <c r="K135" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3230,449 +3226,449 @@
       <selection sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>148</v>
       </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
       <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
         <v>151</v>
       </c>
-      <c r="H2" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" t="s">
-        <v>155</v>
-      </c>
       <c r="K2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="s">
-        <v>158</v>
-      </c>
       <c r="M2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
         <v>160</v>
       </c>
-      <c r="N2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>147</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>148</v>
       </c>
-      <c r="F3" t="s">
-        <v>149</v>
-      </c>
       <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
         <v>151</v>
       </c>
-      <c r="H3" t="s">
-        <v>152</v>
-      </c>
       <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
         <v>154</v>
       </c>
-      <c r="J3" t="s">
-        <v>155</v>
-      </c>
       <c r="K3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
         <v>157</v>
       </c>
-      <c r="L3" t="s">
-        <v>158</v>
-      </c>
       <c r="M3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" t="s">
         <v>160</v>
       </c>
-      <c r="N3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>148</v>
       </c>
-      <c r="F4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
         <v>151</v>
       </c>
-      <c r="H4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
         <v>154</v>
       </c>
-      <c r="J4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
         <v>157</v>
       </c>
-      <c r="L4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" t="s">
         <v>160</v>
       </c>
-      <c r="N4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
         <v>145</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>148</v>
       </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
         <v>151</v>
       </c>
-      <c r="H5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" t="s">
         <v>154</v>
       </c>
-      <c r="J5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
         <v>157</v>
       </c>
-      <c r="L5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" t="s">
         <v>160</v>
       </c>
-      <c r="N5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
         <v>145</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>148</v>
       </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
         <v>151</v>
       </c>
-      <c r="H6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
         <v>154</v>
       </c>
-      <c r="J6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="s">
         <v>157</v>
       </c>
-      <c r="L6" t="s">
-        <v>158</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" t="s">
         <v>160</v>
       </c>
-      <c r="N6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>146</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>147</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>148</v>
       </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
         <v>151</v>
       </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s">
         <v>154</v>
       </c>
-      <c r="J7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" t="s">
         <v>157</v>
       </c>
-      <c r="L7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" t="s">
         <v>160</v>
       </c>
-      <c r="N7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
         <v>145</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>146</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>147</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>148</v>
       </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
         <v>151</v>
       </c>
-      <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" t="s">
         <v>154</v>
       </c>
-      <c r="J8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
         <v>157</v>
       </c>
-      <c r="L8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" t="s">
         <v>160</v>
       </c>
-      <c r="N8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
         <v>145</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>146</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>147</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>148</v>
       </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
         <v>151</v>
       </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" t="s">
         <v>154</v>
       </c>
-      <c r="J9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" t="s">
         <v>157</v>
       </c>
-      <c r="L9" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" t="s">
         <v>160</v>
       </c>
-      <c r="N9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" t="s">
-        <v>160</v>
-      </c>
-      <c r="N10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -3682,1704 +3678,3024 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47B748-D9E9-4667-878D-5465919A2B03}">
+  <dimension ref="A1:DR11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:BP7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T3" t="s">
+        <v>175</v>
+      </c>
+      <c r="U3" t="s">
+        <v>176</v>
+      </c>
+      <c r="V3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W3" t="s">
+        <v>178</v>
+      </c>
+      <c r="X3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R5" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" t="s">
+        <v>177</v>
+      </c>
+      <c r="W5" t="s">
+        <v>178</v>
+      </c>
+      <c r="X5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S6" t="s">
+        <v>174</v>
+      </c>
+      <c r="T6" t="s">
+        <v>175</v>
+      </c>
+      <c r="U6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V6" t="s">
+        <v>177</v>
+      </c>
+      <c r="W6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T8" t="s">
+        <v>175</v>
+      </c>
+      <c r="U8" t="s">
+        <v>176</v>
+      </c>
+      <c r="W8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" t="s">
+        <v>169</v>
+      </c>
+      <c r="O10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>172</v>
+      </c>
+      <c r="R10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" t="s">
+        <v>174</v>
+      </c>
+      <c r="T10" t="s">
+        <v>175</v>
+      </c>
+      <c r="U10" t="s">
+        <v>176</v>
+      </c>
+      <c r="V10" t="s">
+        <v>177</v>
+      </c>
+      <c r="W10" t="s">
+        <v>178</v>
+      </c>
+      <c r="X10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>225</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>228</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>230</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>231</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>232</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>234</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>235</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>236</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>238</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>239</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>240</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>241</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>242</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>244</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>245</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>246</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>247</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>248</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>249</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>250</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>254</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>255</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>256</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>257</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>258</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>259</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>260</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>261</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>262</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>263</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>264</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>265</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>266</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>267</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>268</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>270</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>271</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>272</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>273</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>274</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>275</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>276</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:122" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:DR1" xr:uid="{3C73F2BD-6CD5-403E-8F14-3ED6D5286057}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C73F2BD-6CD5-403E-8F14-3ED6D5286057}">
   <dimension ref="A1:EE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>65</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>66</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>69</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>70</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>71</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>72</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>73</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>74</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>75</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>76</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>77</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>78</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>79</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>80</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>81</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>82</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>83</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>84</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>85</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>87</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>88</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>89</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>90</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>91</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>92</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>93</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>94</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>95</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>96</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>97</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>98</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>99</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>100</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>101</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>102</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>103</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>104</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>105</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>106</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>107</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>108</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>109</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>110</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>111</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>112</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>113</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>114</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>115</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>116</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>117</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>118</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>119</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>120</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>121</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>122</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>123</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>124</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>125</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>126</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>127</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>128</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>129</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>130</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>131</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>132</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>133</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>134</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>135</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>136</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>137</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>138</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>139</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>140</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>141</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>142</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>143</v>
       </c>
-      <c r="EE1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>148</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>149</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>150</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>151</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>152</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>153</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>154</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>155</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>156</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>157</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>158</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>160</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>161</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>162</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>163</v>
       </c>
-      <c r="U2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>147</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>148</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>150</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>151</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>152</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>153</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>154</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>155</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>156</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>157</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>158</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>159</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>160</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>161</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>162</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>163</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>164</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>165</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>166</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>167</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>168</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>172</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>173</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>174</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>175</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>176</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>177</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>178</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>179</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>180</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>181</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>182</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>183</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>184</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>185</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>186</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>187</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>188</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>189</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>190</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>191</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>192</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>193</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>194</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>195</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>196</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>197</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>198</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>199</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>200</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>201</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>202</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>203</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>204</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>205</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>206</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>207</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>208</v>
       </c>
-      <c r="BN3" t="s">
+    </row>
+    <row r="4" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R4" t="s">
+        <v>160</v>
+      </c>
+      <c r="S4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T4" t="s">
+        <v>162</v>
+      </c>
+      <c r="U4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="BP4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>148</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
         <v>149</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H6" t="s">
         <v>150</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I6" t="s">
         <v>151</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" t="s">
+        <v>163</v>
+      </c>
+      <c r="V6" t="s">
+        <v>164</v>
+      </c>
+      <c r="W6" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" t="s">
         <v>152</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K7" t="s">
         <v>153</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L7" t="s">
         <v>154</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M7" t="s">
         <v>155</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N7" t="s">
         <v>156</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O7" t="s">
         <v>157</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P7" t="s">
         <v>158</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q7" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R7" t="s">
         <v>160</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" t="s">
         <v>161</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U8" t="s">
+        <v>163</v>
+      </c>
+      <c r="V8" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" t="s">
         <v>162</v>
       </c>
-      <c r="T4" t="s">
+      <c r="BZ9" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" t="s">
+        <v>160</v>
+      </c>
+      <c r="U10" t="s">
         <v>163</v>
       </c>
-      <c r="U4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="W10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV10" t="s">
         <v>190</v>
       </c>
-      <c r="BO4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" t="s">
-        <v>157</v>
-      </c>
-      <c r="O5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" t="s">
-        <v>161</v>
-      </c>
-      <c r="S5" t="s">
-        <v>162</v>
-      </c>
-      <c r="U5" t="s">
-        <v>164</v>
-      </c>
-      <c r="W5" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV5" t="s">
+      <c r="AW10" t="s">
         <v>191</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="AX10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC10" t="s">
         <v>197</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BD10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF10" t="s">
         <v>200</v>
       </c>
-      <c r="BR5" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS5" t="s">
+      <c r="BT10" t="s">
         <v>214</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU10" t="s">
         <v>215</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV10" t="s">
         <v>216</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BW10" t="s">
         <v>217</v>
       </c>
-      <c r="BW5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" t="s">
-        <v>156</v>
-      </c>
-      <c r="N6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" t="s">
-        <v>158</v>
-      </c>
-      <c r="P6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" t="s">
-        <v>164</v>
-      </c>
-      <c r="V6" t="s">
-        <v>165</v>
-      </c>
-      <c r="W6" t="s">
-        <v>166</v>
-      </c>
-      <c r="X6" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>196</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>202</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>204</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>207</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>209</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>216</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>219</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" t="s">
-        <v>157</v>
-      </c>
-      <c r="O7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>160</v>
-      </c>
-      <c r="R7" t="s">
-        <v>161</v>
-      </c>
-      <c r="T7" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>221</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>222</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>223</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" t="s">
-        <v>161</v>
-      </c>
-      <c r="S8" t="s">
-        <v>162</v>
-      </c>
-      <c r="U8" t="s">
-        <v>164</v>
-      </c>
-      <c r="V8" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>197</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>209</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>214</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>215</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>216</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>217</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" t="s">
-        <v>158</v>
-      </c>
-      <c r="P9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>160</v>
-      </c>
-      <c r="R9" t="s">
-        <v>161</v>
-      </c>
-      <c r="T9" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>221</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>222</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>223</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>224</v>
-      </c>
-      <c r="CD9" t="s">
+      <c r="CE10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" t="s">
-        <v>158</v>
-      </c>
-      <c r="P10" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>160</v>
-      </c>
-      <c r="R10" t="s">
-        <v>161</v>
-      </c>
-      <c r="U10" t="s">
-        <v>164</v>
-      </c>
-      <c r="W10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>196</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>215</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>216</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>218</v>
-      </c>
-      <c r="CE10" t="s">
+      <c r="CF10" t="s">
         <v>226</v>
       </c>
-      <c r="CF10" t="s">
+      <c r="CG10" t="s">
         <v>227</v>
       </c>
-      <c r="CG10" t="s">
+      <c r="CH10" t="s">
         <v>228</v>
       </c>
-      <c r="CH10" t="s">
+      <c r="CI10" t="s">
         <v>229</v>
       </c>
-      <c r="CI10" t="s">
+      <c r="CJ10" t="s">
         <v>230</v>
       </c>
-      <c r="CJ10" t="s">
+      <c r="CK10" t="s">
         <v>231</v>
       </c>
-      <c r="CK10" t="s">
+      <c r="CL10" t="s">
         <v>232</v>
       </c>
-      <c r="CL10" t="s">
+      <c r="CM10" t="s">
         <v>233</v>
       </c>
-      <c r="CM10" t="s">
+      <c r="CN10" t="s">
         <v>234</v>
       </c>
-      <c r="CN10" t="s">
+      <c r="CO10" t="s">
         <v>235</v>
       </c>
-      <c r="CO10" t="s">
+      <c r="CP10" t="s">
         <v>236</v>
       </c>
-      <c r="CP10" t="s">
+      <c r="CQ10" t="s">
         <v>237</v>
       </c>
-      <c r="CQ10" t="s">
+      <c r="CR10" t="s">
         <v>238</v>
       </c>
-      <c r="CR10" t="s">
+      <c r="CS10" t="s">
         <v>239</v>
       </c>
-      <c r="CS10" t="s">
+      <c r="CT10" t="s">
         <v>240</v>
       </c>
-      <c r="CT10" t="s">
+      <c r="CU10" t="s">
         <v>241</v>
       </c>
-      <c r="CU10" t="s">
+      <c r="CV10" t="s">
         <v>242</v>
       </c>
-      <c r="CV10" t="s">
+      <c r="CW10" t="s">
         <v>243</v>
       </c>
-      <c r="CW10" t="s">
+      <c r="CX10" t="s">
         <v>244</v>
       </c>
-      <c r="CX10" t="s">
+      <c r="CY10" t="s">
         <v>245</v>
       </c>
-      <c r="CY10" t="s">
+      <c r="CZ10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ10" t="s">
+      <c r="DA10" t="s">
         <v>247</v>
       </c>
-      <c r="DA10" t="s">
+      <c r="DB10" t="s">
         <v>248</v>
       </c>
-      <c r="DB10" t="s">
+      <c r="DC10" t="s">
         <v>249</v>
       </c>
-      <c r="DC10" t="s">
+      <c r="DD10" t="s">
         <v>250</v>
       </c>
-      <c r="DD10" t="s">
+      <c r="DE10" t="s">
         <v>251</v>
       </c>
-      <c r="DE10" t="s">
+      <c r="DF10" t="s">
         <v>252</v>
       </c>
-      <c r="DF10" t="s">
+      <c r="DG10" t="s">
         <v>253</v>
       </c>
-      <c r="DG10" t="s">
+      <c r="DH10" t="s">
         <v>254</v>
       </c>
-      <c r="DH10" t="s">
+      <c r="DI10" t="s">
         <v>255</v>
       </c>
-      <c r="DI10" t="s">
+      <c r="DJ10" t="s">
         <v>256</v>
       </c>
-      <c r="DJ10" t="s">
+      <c r="DK10" t="s">
         <v>257</v>
       </c>
-      <c r="DK10" t="s">
+      <c r="DL10" t="s">
         <v>258</v>
       </c>
-      <c r="DL10" t="s">
+      <c r="DM10" t="s">
         <v>259</v>
       </c>
-      <c r="DM10" t="s">
+      <c r="DN10" t="s">
         <v>260</v>
       </c>
-      <c r="DN10" t="s">
+      <c r="DO10" t="s">
         <v>261</v>
       </c>
-      <c r="DO10" t="s">
+      <c r="DP10" t="s">
         <v>262</v>
       </c>
-      <c r="DP10" t="s">
+      <c r="DQ10" t="s">
         <v>263</v>
       </c>
-      <c r="DQ10" t="s">
+      <c r="DR10" t="s">
         <v>264</v>
       </c>
-      <c r="DR10" t="s">
+      <c r="DS10" t="s">
         <v>265</v>
       </c>
-      <c r="DS10" t="s">
+      <c r="DT10" t="s">
         <v>266</v>
       </c>
-      <c r="DT10" t="s">
+      <c r="DU10" t="s">
         <v>267</v>
       </c>
-      <c r="DU10" t="s">
+      <c r="DV10" t="s">
         <v>268</v>
       </c>
-      <c r="DV10" t="s">
+      <c r="DW10" t="s">
         <v>269</v>
       </c>
-      <c r="DW10" t="s">
+      <c r="DX10" t="s">
         <v>270</v>
       </c>
-      <c r="DX10" t="s">
+      <c r="DY10" t="s">
         <v>271</v>
       </c>
-      <c r="DY10" t="s">
+      <c r="DZ10" t="s">
         <v>272</v>
       </c>
-      <c r="DZ10" t="s">
+      <c r="EA10" t="s">
         <v>273</v>
       </c>
-      <c r="EA10" t="s">
+      <c r="EB10" t="s">
         <v>274</v>
       </c>
-      <c r="EB10" t="s">
+      <c r="EC10" t="s">
         <v>275</v>
       </c>
-      <c r="EC10" t="s">
+      <c r="ED10" t="s">
         <v>276</v>
       </c>
-      <c r="ED10" t="s">
+      <c r="EE10" t="s">
         <v>277</v>
       </c>
-      <c r="EE10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -5388,22 +6704,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BBD0DF-250D-44BE-BB0D-0BFD7BED6132}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5414,108 +6730,108 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
